--- a/群发邮件/公司通讯录.xlsx
+++ b/群发邮件/公司通讯录.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28407"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilush\PycharmProjects\pythonProject\群发邮件\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2F5F47-9BD2-4217-BD5B-710126E9ED1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
   <si>
     <t>邮箱</t>
   </si>
@@ -1166,19 +1172,37 @@
   </si>
   <si>
     <t>朱振贤</t>
+  </si>
+  <si>
+    <t>huangh@yanshiaq-wh.com</t>
+  </si>
+  <si>
+    <t>黄浩</t>
+  </si>
+  <si>
+    <t>覃海城</t>
+  </si>
+  <si>
+    <t>谭蓉</t>
+  </si>
+  <si>
+    <t>熊焱鑫</t>
+  </si>
+  <si>
+    <t>qinhc@yanshiaq-wh.com</t>
+  </si>
+  <si>
+    <t>tanr@yanshiaq-wh.com</t>
+  </si>
+  <si>
+    <t>xiongyx@yanshiaq-wh.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1194,346 +1218,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1541,251 +1235,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1803,56 +1255,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1864,11 +1268,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2146,25 +1553,25 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B192"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2172,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2180,7 +1587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2188,7 +1595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +1603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2204,7 +1611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2212,7 +1619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2220,7 +1627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2228,7 +1635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -2236,7 +1643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -2244,7 +1651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2252,7 +1659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -2260,7 +1667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -2268,7 +1675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -2276,7 +1683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -2284,7 +1691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -2292,7 +1699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -2300,7 +1707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -2308,7 +1715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -2316,7 +1723,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -2324,7 +1731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -2332,7 +1739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -2340,7 +1747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -2348,7 +1755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
@@ -2356,7 +1763,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
@@ -2364,7 +1771,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -2372,7 +1779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -2380,7 +1787,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
@@ -2388,7 +1795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2396,7 +1803,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2404,7 +1811,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>60</v>
       </c>
@@ -2412,7 +1819,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
@@ -2420,7 +1827,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
@@ -2428,7 +1835,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
@@ -2436,7 +1843,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
@@ -2444,7 +1851,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
@@ -2452,7 +1859,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
@@ -2460,7 +1867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
@@ -2468,7 +1875,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
@@ -2476,7 +1883,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
@@ -2484,7 +1891,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
@@ -2492,7 +1899,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
@@ -2500,7 +1907,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
@@ -2508,7 +1915,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
@@ -2516,7 +1923,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>88</v>
       </c>
@@ -2524,7 +1931,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>90</v>
       </c>
@@ -2532,7 +1939,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
@@ -2540,7 +1947,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>94</v>
       </c>
@@ -2548,7 +1955,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
@@ -2556,7 +1963,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>98</v>
       </c>
@@ -2564,7 +1971,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -2572,7 +1979,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>102</v>
       </c>
@@ -2580,7 +1987,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>104</v>
       </c>
@@ -2588,7 +1995,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>106</v>
       </c>
@@ -2596,7 +2003,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>108</v>
       </c>
@@ -2604,7 +2011,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>110</v>
       </c>
@@ -2612,7 +2019,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>112</v>
       </c>
@@ -2620,7 +2027,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>114</v>
       </c>
@@ -2628,7 +2035,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>116</v>
       </c>
@@ -2636,7 +2043,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>118</v>
       </c>
@@ -2644,7 +2051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>120</v>
       </c>
@@ -2652,7 +2059,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>122</v>
       </c>
@@ -2660,7 +2067,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>124</v>
       </c>
@@ -2668,7 +2075,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>126</v>
       </c>
@@ -2676,7 +2083,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>128</v>
       </c>
@@ -2684,7 +2091,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>130</v>
       </c>
@@ -2692,7 +2099,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>132</v>
       </c>
@@ -2700,7 +2107,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>134</v>
       </c>
@@ -2708,7 +2115,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>136</v>
       </c>
@@ -2716,7 +2123,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>138</v>
       </c>
@@ -2724,7 +2131,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>140</v>
       </c>
@@ -2732,7 +2139,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>142</v>
       </c>
@@ -2740,7 +2147,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>144</v>
       </c>
@@ -2748,7 +2155,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>146</v>
       </c>
@@ -2756,7 +2163,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>148</v>
       </c>
@@ -2764,7 +2171,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>150</v>
       </c>
@@ -2772,7 +2179,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>152</v>
       </c>
@@ -2780,7 +2187,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>154</v>
       </c>
@@ -2788,7 +2195,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>156</v>
       </c>
@@ -2796,7 +2203,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>158</v>
       </c>
@@ -2804,7 +2211,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>160</v>
       </c>
@@ -2812,7 +2219,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>162</v>
       </c>
@@ -2820,7 +2227,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>164</v>
       </c>
@@ -2828,7 +2235,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>166</v>
       </c>
@@ -2836,7 +2243,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>168</v>
       </c>
@@ -2844,7 +2251,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>170</v>
       </c>
@@ -2852,7 +2259,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>172</v>
       </c>
@@ -2860,7 +2267,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>174</v>
       </c>
@@ -2868,7 +2275,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>176</v>
       </c>
@@ -2876,7 +2283,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>178</v>
       </c>
@@ -2884,7 +2291,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>180</v>
       </c>
@@ -2892,7 +2299,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>182</v>
       </c>
@@ -2900,7 +2307,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>184</v>
       </c>
@@ -2908,7 +2315,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>186</v>
       </c>
@@ -2916,7 +2323,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>188</v>
       </c>
@@ -2924,7 +2331,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>190</v>
       </c>
@@ -2932,7 +2339,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>192</v>
       </c>
@@ -2940,7 +2347,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>194</v>
       </c>
@@ -2948,7 +2355,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>196</v>
       </c>
@@ -2956,7 +2363,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>198</v>
       </c>
@@ -2964,7 +2371,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>200</v>
       </c>
@@ -2972,7 +2379,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>202</v>
       </c>
@@ -2980,7 +2387,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>204</v>
       </c>
@@ -2988,7 +2395,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>206</v>
       </c>
@@ -2996,7 +2403,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>208</v>
       </c>
@@ -3004,7 +2411,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>210</v>
       </c>
@@ -3012,7 +2419,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>212</v>
       </c>
@@ -3020,7 +2427,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>214</v>
       </c>
@@ -3028,7 +2435,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>216</v>
       </c>
@@ -3036,7 +2443,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>218</v>
       </c>
@@ -3044,7 +2451,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>220</v>
       </c>
@@ -3052,7 +2459,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>222</v>
       </c>
@@ -3060,7 +2467,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>224</v>
       </c>
@@ -3068,7 +2475,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>226</v>
       </c>
@@ -3076,7 +2483,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>228</v>
       </c>
@@ -3084,7 +2491,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>230</v>
       </c>
@@ -3092,7 +2499,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>232</v>
       </c>
@@ -3100,7 +2507,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>234</v>
       </c>
@@ -3108,7 +2515,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>236</v>
       </c>
@@ -3116,7 +2523,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>238</v>
       </c>
@@ -3124,7 +2531,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>240</v>
       </c>
@@ -3132,7 +2539,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>242</v>
       </c>
@@ -3140,7 +2547,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>244</v>
       </c>
@@ -3148,7 +2555,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>246</v>
       </c>
@@ -3156,7 +2563,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>248</v>
       </c>
@@ -3164,7 +2571,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>250</v>
       </c>
@@ -3172,7 +2579,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>252</v>
       </c>
@@ -3180,7 +2587,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>254</v>
       </c>
@@ -3188,7 +2595,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -3196,7 +2603,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>258</v>
       </c>
@@ -3204,7 +2611,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -3212,7 +2619,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -3220,7 +2627,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -3228,7 +2635,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>266</v>
       </c>
@@ -3236,7 +2643,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -3244,7 +2651,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -3252,7 +2659,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -3260,7 +2667,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -3268,7 +2675,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -3276,7 +2683,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -3284,7 +2691,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -3292,7 +2699,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -3300,7 +2707,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -3308,7 +2715,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -3316,7 +2723,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -3324,7 +2731,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -3332,7 +2739,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -3340,7 +2747,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -3348,7 +2755,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -3356,7 +2763,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -3364,7 +2771,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -3372,7 +2779,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>302</v>
       </c>
@@ -3380,7 +2787,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -3388,7 +2795,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>306</v>
       </c>
@@ -3396,7 +2803,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>308</v>
       </c>
@@ -3404,7 +2811,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>310</v>
       </c>
@@ -3412,7 +2819,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -3420,7 +2827,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>314</v>
       </c>
@@ -3428,7 +2835,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>316</v>
       </c>
@@ -3436,7 +2843,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>318</v>
       </c>
@@ -3444,7 +2851,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>320</v>
       </c>
@@ -3452,7 +2859,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>322</v>
       </c>
@@ -3460,7 +2867,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>324</v>
       </c>
@@ -3468,7 +2875,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>326</v>
       </c>
@@ -3476,7 +2883,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>328</v>
       </c>
@@ -3484,7 +2891,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>330</v>
       </c>
@@ -3492,7 +2899,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>332</v>
       </c>
@@ -3500,7 +2907,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>334</v>
       </c>
@@ -3508,7 +2915,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>336</v>
       </c>
@@ -3516,7 +2923,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>338</v>
       </c>
@@ -3524,7 +2931,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>340</v>
       </c>
@@ -3532,7 +2939,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>342</v>
       </c>
@@ -3540,7 +2947,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>344</v>
       </c>
@@ -3548,7 +2955,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>346</v>
       </c>
@@ -3556,7 +2963,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>348</v>
       </c>
@@ -3564,7 +2971,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>350</v>
       </c>
@@ -3572,7 +2979,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>352</v>
       </c>
@@ -3580,7 +2987,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>354</v>
       </c>
@@ -3588,7 +2995,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>356</v>
       </c>
@@ -3596,7 +3003,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>358</v>
       </c>
@@ -3604,7 +3011,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>360</v>
       </c>
@@ -3612,7 +3019,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>362</v>
       </c>
@@ -3620,7 +3027,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>364</v>
       </c>
@@ -3628,7 +3035,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>366</v>
       </c>
@@ -3636,7 +3043,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>368</v>
       </c>
@@ -3644,7 +3051,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>370</v>
       </c>
@@ -3652,7 +3059,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>372</v>
       </c>
@@ -3660,7 +3067,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>374</v>
       </c>
@@ -3668,7 +3075,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>376</v>
       </c>
@@ -3676,7 +3083,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>378</v>
       </c>
@@ -3684,7 +3091,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>380</v>
       </c>
@@ -3692,7 +3099,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>382</v>
       </c>
@@ -3700,14 +3107,45 @@
         <v>383</v>
       </c>
     </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>389</v>
+      </c>
+      <c r="B194" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>390</v>
+      </c>
+      <c r="B195" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>391</v>
+      </c>
+      <c r="B196" t="s">
+        <v>388</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A$1:B$1048576">
+  <conditionalFormatting sqref="A1:B192 A197:B1048576 B194:B196">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A92" r:id="rId1" display="huj@qidianbx.com"/>
+    <hyperlink ref="A92" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>